--- a/テーブル定義書/テーブル定義書.xlsx
+++ b/テーブル定義書/テーブル定義書.xlsx
@@ -761,13 +761,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -778,24 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -806,89 +866,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,80 +1172,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="13"/>
+      <c r="I2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="42"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="I3" s="46">
+      <c r="F3" s="13"/>
+      <c r="I3" s="51">
         <v>45393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="47">
+      <c r="J3" s="14"/>
+      <c r="K3" s="25">
         <v>45393</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="44"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,62 +1256,62 @@
       <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="21" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="48" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="10">
         <v>10</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1324,28 +1322,28 @@
         <v>0</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1358,28 +1356,28 @@
       <c r="L8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1388,84 +1386,84 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="24" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="24" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1474,81 +1472,81 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="7"/>
       <c r="J14" s="5"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="7"/>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -1556,24 +1554,36 @@
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="51"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="F15:H15"/>
@@ -1588,30 +1598,18 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル定義書/テーブル定義書.xlsx
+++ b/テーブル定義書/テーブル定義書.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="user_mst" sheetId="1" r:id="rId1"/>
+    <sheet name="変更履歴" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Y</t>
     <phoneticPr fontId="1"/>
@@ -220,23 +221,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>phine_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prefecture_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>city</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>block</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -320,6 +309,96 @@
     <t>保田瑞穂</t>
     <rPh sb="0" eb="4">
       <t>ヤスダミズホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加場所</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック使用一覧</t>
+    <rPh sb="4" eb="8">
+      <t>シヨウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルC5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前：int　10　Y
+変更後：varchar　11</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウマエ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する住所の都道府県の番号</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -328,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,16 +423,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -727,13 +820,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,26 +1003,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -800,6 +1060,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,85 +1114,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,78 +1504,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:Q10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="I2" s="50" t="s">
+      <c r="F2" s="49"/>
+      <c r="I2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="P2" s="49"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="I3" s="14">
+        <v>45393</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="51">
+        <v>45398</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="I3" s="51">
-        <v>45393</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="25">
-        <v>45393</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,28 +1590,28 @@
       <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1290,30 +1624,30 @@
       <c r="L6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="5">
         <v>64</v>
@@ -1322,30 +1656,30 @@
         <v>0</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="5">
         <v>10</v>
@@ -1356,218 +1690,238 @@
       <c r="L8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
+      <c r="M8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="19" t="s">
+      <c r="C9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5">
         <v>2</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
+      <c r="M9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
+      <c r="M10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
+      <c r="M11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="19" t="s">
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12" s="5">
         <v>64</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
+      <c r="M12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="7"/>
       <c r="J14" s="5"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="7"/>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="8"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="C10:E10"/>
@@ -1584,35 +1938,238 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="52"/>
+    <col min="7" max="7" width="8.6640625" style="53"/>
+    <col min="9" max="9" width="8.6640625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="56">
+        <v>45398</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="69"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="69"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="69"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="77"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="77"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="77"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+    </row>
+    <row r="11" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="J3:P6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>